--- a/requirements_tracking_sheet.xlsx
+++ b/requirements_tracking_sheet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\GitHub\projectdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA5F408-4DA0-4035-94FD-318F10BB2A2D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAED43F-928F-4101-B891-11773CF93197}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{92DE14FF-9559-4092-B2A3-30849BF80630}"/>
   </bookViews>
   <sheets>
     <sheet name="All requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Phase1-HR-EmployeeJourney" sheetId="3" r:id="rId2"/>
+    <sheet name="Phase2-Employeedashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="Phase3-Others" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All requirements'!$B$2:$E$76</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="194">
   <si>
     <t>S.No.</t>
   </si>
@@ -749,7 +751,127 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Leaves</t>
+    <t>Employee Action Journey</t>
+  </si>
+  <si>
+    <t>Sidebar menuitem</t>
+  </si>
+  <si>
+    <t>HR timesheet dashboard</t>
+  </si>
+  <si>
+    <t>HR employee dashboard for requests</t>
+  </si>
+  <si>
+    <t>Creation of new employee</t>
+  </si>
+  <si>
+    <t>maintain onboarding documents</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maintain employee master record</t>
+  </si>
+  <si>
+    <t>Update timesheets</t>
+  </si>
+  <si>
+    <t>Update leaves</t>
+  </si>
+  <si>
+    <t>Update in employee master</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Maintain claims</t>
+  </si>
+  <si>
+    <t>Apply merit increase</t>
+  </si>
+  <si>
+    <t>Create in employee master</t>
+  </si>
+  <si>
+    <t>Checklist UI for capturing the documents and stroring in DB</t>
+  </si>
+  <si>
+    <t>Employee dash board</t>
+  </si>
+  <si>
+    <t>Employee related features</t>
+  </si>
+  <si>
+    <t>UI to update leaves for employees</t>
+  </si>
+  <si>
+    <t>Exit employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI to set resignation date and last date. </t>
+  </si>
+  <si>
+    <t>Leaves section</t>
+  </si>
+  <si>
+    <t>timesheets section</t>
+  </si>
+  <si>
+    <t>Leaves details</t>
+  </si>
+  <si>
+    <t>Personal details</t>
+  </si>
+  <si>
+    <t>view and update personal details</t>
+  </si>
+  <si>
+    <t>Downloading manual timesheet and uploading filled timesheet</t>
+  </si>
+  <si>
+    <t>Claims details and uploading new claims</t>
+  </si>
+  <si>
+    <t>Claims section</t>
+  </si>
+  <si>
+    <t>Downloading Payslips</t>
+  </si>
+  <si>
+    <t>Payslips section</t>
+  </si>
+  <si>
+    <t>Sending letter requests</t>
+  </si>
+  <si>
+    <t>Request for letters from HR</t>
+  </si>
+  <si>
+    <t>Client details</t>
+  </si>
+  <si>
+    <t>HR touch points</t>
+  </si>
+  <si>
+    <t>HR touch points section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Creating an offer</t>
+  </si>
+  <si>
+    <t>Convert employee to client(special case of exit)</t>
+  </si>
+  <si>
+    <t>Maintain apprisal records ( not needed)</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DB38B-1657-4F6B-BAAE-5A5D0D1477BF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1450,7 +1573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1488,7 +1611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="38.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1526,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1564,7 +1687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1602,7 +1725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1637,7 +1760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1672,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1707,7 +1830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1742,7 +1865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1777,7 +1900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1812,7 +1935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1847,7 +1970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1885,7 +2008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1923,7 +2046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1961,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1999,7 +2122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2037,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -2075,7 +2198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -2113,7 +2236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -2151,7 +2274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -2189,7 +2312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -2227,7 +2350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -2265,7 +2388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -2303,7 +2426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -2341,7 +2464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -2382,7 +2505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -2464,7 +2587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -2502,7 +2625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -2540,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -2578,7 +2701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -2654,7 +2777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -2692,7 +2815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -2730,7 +2853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -2768,7 +2891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -2806,7 +2929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -2844,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -2882,7 +3005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -2920,7 +3043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="409.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -2961,7 +3084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -2999,7 +3122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -3037,7 +3160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -3113,7 +3236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -3151,7 +3274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -3189,7 +3312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -3227,7 +3350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -3265,7 +3388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -3303,7 +3426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -3341,7 +3464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -3379,7 +3502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -3417,7 +3540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -3493,7 +3616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -3528,7 +3651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -3567,7 +3690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -3606,7 +3729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -3645,7 +3768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -3683,7 +3806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -3721,7 +3844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -3759,7 +3882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -3797,7 +3920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -3835,7 +3958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -3870,7 +3993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -3919,7 +4042,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>49</v>
@@ -3984,7 +4107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -4022,7 +4145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -4060,7 +4183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -4098,7 +4221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -4138,6 +4261,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:E76" xr:uid="{BB2B0DA3-DE43-414D-BA1C-F2A9C8064A1B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Employee master"/>
+      </filters>
+    </filterColumn>
     <sortState ref="B3:E74">
       <sortCondition ref="B2:B74"/>
     </sortState>
@@ -4153,18 +4281,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B71329-0A98-491A-A5F1-763AF2B832E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9204127D-180A-41CD-B578-3BDC0757A822}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C28755-E6CC-4213-B8EB-55A3C5240891}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>